--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -27,12 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Madi</t>
-  </si>
-  <si>
-    <t>Anne</t>
   </si>
   <si>
     <t>Calvin</t>
@@ -418,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,7 +426,7 @@
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -438,81 +435,68 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
   <si>
     <t>Madi</t>
   </si>
@@ -60,13 +60,22 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>18.10.17</t>
+  </si>
+  <si>
+    <t>05.10.17</t>
+  </si>
+  <si>
+    <t>20.10.17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -96,13 +105,25 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -123,23 +144,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="13">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -415,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A24" sqref="A24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -427,7 +467,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -442,15 +484,9 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -497,6 +533,160 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
